--- a/sql/角色导入模板.xlsx
+++ b/sql/角色导入模板.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>填写说明：
 1、一个角色一行，不得对标题行进行编辑，否则将导致表格无法被系统所识别
@@ -166,6 +166,9 @@
   <si>
     <t>管理学校的一些操作</t>
   </si>
+  <si>
+    <t>school_manage</t>
+  </si>
 </sst>
 </file>
 
@@ -809,7 +812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,6 +831,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1360,7 +1366,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1398,7 +1404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:4">
+    <row r="3" ht="18" customHeight="1" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1410,6 +1416,9 @@
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1"/>
